--- a/src/art-parent/art/src/main/webapp/WEB-INF/work/templates/sample-jxls9.xlsx
+++ b/src/art-parent/art/src/main/webapp/WEB-INF/work/templates/sample-jxls9.xlsx
@@ -56,7 +56,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="jdbc.query(1,'select o.order_id, c.name city_name, i.name item_name, o.order_date, o.volume from orders o, cities c, items i where o.city_id=c.city_id and o.item_id=i.item_id and order_date&gt;=? and o.city_id=? and o.item_id in(' + item.sqlValue + ') order by o.order_date', order_date.value, cityId.value)" var="item" lastCell="E10")</t>
+jx:each(items="jdbc.query2(1,'select o.order_id, c.name city_name, i.name item_name, o.order_date, o.volume from orders o, cities c, items i where o.city_id=c.city_id and o.item_id=i.item_id and order_date&gt;=? and o.city_id=? and o.item_id in(' + item.sqlValue + ') order by o.order_date', order_date.value, cityId.value)" var="item" lastCell="E10")</t>
         </r>
       </text>
     </comment>
@@ -520,7 +520,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
